--- a/data/trans_dic/P1412-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1412-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00413153724729951</v>
+        <v>0.004163462575882425</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004126198420189745</v>
+        <v>0.004276001199171953</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006597748324093839</v>
+        <v>0.006889945941955447</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.001988233831704174</v>
+        <v>0.002096513498101094</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003584462947027423</v>
+        <v>0.003427014025522222</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.008248586977467475</v>
+        <v>0.008190956287027091</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004173484543678284</v>
+        <v>0.004397195804460742</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004972874314608335</v>
+        <v>0.004666562877667834</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008758641597110366</v>
+        <v>0.008566898700709664</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01717894645759425</v>
+        <v>0.01734924422251649</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01670043501805873</v>
+        <v>0.01566298305519922</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02758952172274881</v>
+        <v>0.02646497036739012</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01198197715889182</v>
+        <v>0.01307876205117581</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01469885300579514</v>
+        <v>0.01421375114537181</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0227402578436063</v>
+        <v>0.02401957086824484</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01199072518303011</v>
+        <v>0.0117335815004347</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01304067038275607</v>
+        <v>0.0124048672241316</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02044219020465314</v>
+        <v>0.02118790278342687</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.006005397335696054</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.007618433246380619</v>
+        <v>0.007618433246380618</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003823765928140361</v>
+        <v>0.004126590056700727</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003318526317480207</v>
+        <v>0.003385473003940201</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006501340047682123</v>
+        <v>0.006642453061265339</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004740811955660532</v>
+        <v>0.004021774427055104</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001072038365811133</v>
+        <v>0.001061356699048866</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.001991141101119548</v>
+        <v>0.001925745617114818</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004985912696390658</v>
+        <v>0.004984740867164493</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00327744912653578</v>
+        <v>0.00322100114769553</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004675954926191534</v>
+        <v>0.00482885690534225</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02037130161905645</v>
+        <v>0.01972863482228177</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0165159885505925</v>
+        <v>0.01479411023889014</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02070583629669018</v>
+        <v>0.02042464814674839</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01646274196081025</v>
+        <v>0.01618183242847478</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01049974730317578</v>
+        <v>0.01052283654902981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.007672075430364099</v>
+        <v>0.00803355082068365</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01370688224841635</v>
+        <v>0.01419005529297733</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01067920731444708</v>
+        <v>0.0104006540971642</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01167840346893246</v>
+        <v>0.01196529377853529</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.005012912130967037</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.004663050869842353</v>
+        <v>0.004663050869842352</v>
       </c>
     </row>
     <row r="11">
@@ -896,28 +896,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002482995683584021</v>
+        <v>0.00239039453096806</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003849347389046702</v>
+        <v>0.003554655295832514</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.002339650182903988</v>
+        <v>0.002332132987364906</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.000582606161866605</v>
+        <v>0.000690783500356042</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001273617532898535</v>
+        <v>0.001697161018731758</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002102818613406323</v>
+        <v>0.002316645784587625</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002602655201550532</v>
+        <v>0.00252855525751252</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.00700818266249927</v>
+        <v>0.005840944985385534</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01434501992608712</v>
+        <v>0.01421824620619034</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01353353062869606</v>
+        <v>0.01393578108347966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01325938659794816</v>
+        <v>0.01370466304220068</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01007705805437602</v>
+        <v>0.009840672296215712</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.005768572807039869</v>
+        <v>0.005814792594857899</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.007591530061573822</v>
+        <v>0.007766314088880514</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.009714312930300919</v>
+        <v>0.009734499655970156</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.008036704627169128</v>
+        <v>0.007738273002271762</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.006704791213349986</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.005619526559881727</v>
+        <v>0.005619526559881728</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.007551263097975726</v>
@@ -991,7 +991,7 @@
         <v>0.006566823795662976</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.006663907882037663</v>
+        <v>0.006663907882037662</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002065323340915515</v>
+        <v>0.002065846552368303</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001559725307333377</v>
+        <v>0.00160131397253901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003614914348720608</v>
+        <v>0.003795760286518447</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002288826672404473</v>
+        <v>0.00228823951464468</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002032172718947144</v>
+        <v>0.002033177164311759</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002489532400252083</v>
+        <v>0.002727899788892133</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003242299601013248</v>
+        <v>0.003177026958681404</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.002571196889920131</v>
+        <v>0.002870950838677379</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.004040013057303926</v>
+        <v>0.003791234976988742</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01838025788771046</v>
+        <v>0.02079275678595857</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01830416348216926</v>
+        <v>0.01904257435058827</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0130458727392022</v>
+        <v>0.01352415809873367</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01897305382937184</v>
+        <v>0.02096317347707217</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01923205425393129</v>
+        <v>0.01803974525358245</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01057779443243798</v>
+        <v>0.0101953434281367</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0150768011814941</v>
+        <v>0.01461717976079275</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01425558840235431</v>
+        <v>0.01401332154740994</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01040652529490309</v>
+        <v>0.0102954704163871</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.006576318892940668</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.007482459592659865</v>
+        <v>0.007482459592659863</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004322417198695432</v>
+        <v>0.004224150323863964</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.005273608460352664</v>
+        <v>0.005010088031335224</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006792958310806832</v>
+        <v>0.006892382168230333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.004753716739299864</v>
+        <v>0.004603750816870694</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.003349877255079213</v>
+        <v>0.003506083469421972</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.00407123575092971</v>
+        <v>0.004038041720715478</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004893199725003888</v>
+        <v>0.005140878049691399</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.004813632409504024</v>
+        <v>0.004818620935049999</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.005922659093266038</v>
+        <v>0.00582089694328262</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01024730697678588</v>
+        <v>0.01019976197538905</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01127674144957772</v>
+        <v>0.01113942777139547</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01266911036825998</v>
+        <v>0.01319168484825528</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01031663726392913</v>
+        <v>0.01050066543587149</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.008699629709173103</v>
+        <v>0.008541978885703095</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.007765086152083255</v>
+        <v>0.007730589538617541</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.009246809752838463</v>
+        <v>0.009163989354883708</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.00877398004459983</v>
+        <v>0.008773606358170755</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.009492717105578126</v>
+        <v>0.009196461843361009</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4313</v>
+        <v>4346</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4654</v>
+        <v>4823</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3267</v>
+        <v>3411</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2222</v>
+        <v>2343</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4515</v>
+        <v>4317</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5132</v>
+        <v>5096</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>9021</v>
+        <v>9504</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11873</v>
+        <v>11142</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>9786</v>
+        <v>9572</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17934</v>
+        <v>18111</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18838</v>
+        <v>17668</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13660</v>
+        <v>13103</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13390</v>
+        <v>14615</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18514</v>
+        <v>17903</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14148</v>
+        <v>14944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25917</v>
+        <v>25361</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>31135</v>
+        <v>29617</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22840</v>
+        <v>23673</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3736</v>
+        <v>4032</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3016</v>
+        <v>3077</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6242</v>
+        <v>6378</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5174</v>
+        <v>4389</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2220</v>
+        <v>2148</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10313</v>
+        <v>10311</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6277</v>
+        <v>6169</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>9704</v>
+        <v>10021</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19904</v>
+        <v>19276</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15010</v>
+        <v>13445</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19880</v>
+        <v>19610</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17967</v>
+        <v>17661</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10568</v>
+        <v>10591</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8556</v>
+        <v>8959</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>28352</v>
+        <v>29351</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20454</v>
+        <v>19920</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>24236</v>
+        <v>24832</v>
       </c>
     </row>
     <row r="12">
@@ -1690,28 +1690,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2045</v>
+        <v>1969</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4028</v>
+        <v>3720</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2049</v>
+        <v>2042</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>610</v>
+        <v>723</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2243</v>
+        <v>2989</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3354</v>
+        <v>3695</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5447</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6203</v>
+        <v>5170</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11817</v>
+        <v>11712</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14163</v>
+        <v>14584</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11613</v>
+        <v>12002</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7770</v>
+        <v>7588</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6035</v>
+        <v>6084</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13368</v>
+        <v>13676</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15493</v>
+        <v>15525</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>16819</v>
+        <v>16194</v>
       </c>
     </row>
     <row r="16">
@@ -1834,28 +1834,28 @@
         <v>1039</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>790</v>
+        <v>811</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3528</v>
+        <v>3704</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>1036</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2260</v>
+        <v>2477</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3099</v>
+        <v>3036</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2562</v>
+        <v>2861</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7610</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9246</v>
+        <v>10459</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9275</v>
+        <v>9649</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12732</v>
+        <v>13199</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>8590</v>
+        <v>9491</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9418</v>
+        <v>8834</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9603</v>
+        <v>9256</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>14410</v>
+        <v>13970</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14204</v>
+        <v>13963</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>19604</v>
+        <v>19394</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14736</v>
+        <v>14401</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17758</v>
+        <v>16870</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>23624</v>
+        <v>23969</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16816</v>
+        <v>16285</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11814</v>
+        <v>12365</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>15029</v>
+        <v>14906</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>33991</v>
+        <v>35711</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>33186</v>
+        <v>33220</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>42460</v>
+        <v>41731</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>34935</v>
+        <v>34772</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>37972</v>
+        <v>37510</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>44059</v>
+        <v>45876</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>36494</v>
+        <v>37145</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30682</v>
+        <v>30126</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>28664</v>
+        <v>28537</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>64233</v>
+        <v>63658</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>60488</v>
+        <v>60486</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>68054</v>
+        <v>65930</v>
       </c>
     </row>
     <row r="24">
